--- a/GUI + Reviews/202512/Volatility.xlsx
+++ b/GUI + Reviews/202512/Volatility.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\PM-Indices-IndexOperations\Review Files\202512\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D50C855-831D-4E1A-93E0-2384365DAB68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCCD8D9-F6E2-4D1F-9EF3-1B1ED7DE8F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5A699428-F9CB-4190-AC7E-3E4D36CDA6B6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="111">
   <si>
     <t>ISIN code</t>
   </si>
@@ -110,9 +110,6 @@
     <t>NL0015000IY2</t>
   </si>
   <si>
-    <t>GB00B10RZP78</t>
-  </si>
-  <si>
     <t>NL0000395903</t>
   </si>
   <si>
@@ -351,6 +348,27 @@
   </si>
   <si>
     <t>BE0974273055</t>
+  </si>
+  <si>
+    <t>BE0003593044</t>
+  </si>
+  <si>
+    <t>BE0003822393</t>
+  </si>
+  <si>
+    <t>BE0003797140</t>
+  </si>
+  <si>
+    <t>BE0003565737</t>
+  </si>
+  <si>
+    <t>BE0003739530</t>
+  </si>
+  <si>
+    <t>BE0974320526</t>
+  </si>
+  <si>
+    <t>GB00BVZK7T90</t>
   </si>
 </sst>
 </file>
@@ -729,9 +747,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8AD6AB5-4C2F-4ED9-BB79-B667D9396763}">
-  <dimension ref="A1:C106"/>
+  <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -744,15 +764,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
         <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>58.430235080724501</v>
@@ -760,7 +780,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3">
         <v>49.389125093653099</v>
@@ -768,7 +788,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4">
         <v>49.389125093653099</v>
@@ -776,7 +796,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5">
         <v>18.968463525908998</v>
@@ -784,7 +804,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>16.149931754742202</v>
@@ -792,7 +812,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7">
         <v>18.325207670841401</v>
@@ -800,7 +820,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8">
         <v>45.091334994772701</v>
@@ -808,7 +828,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9">
         <v>5.0522322733254699</v>
@@ -816,7 +836,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10">
         <v>56.080213531310598</v>
@@ -824,7 +844,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11">
         <v>303.19428257177799</v>
@@ -832,7 +852,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12">
         <v>21.377130251772002</v>
@@ -840,7 +860,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13">
         <v>61.262816751583905</v>
@@ -848,7 +868,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14">
         <v>36.991614304126102</v>
@@ -856,7 +876,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15">
         <v>58.430235080724501</v>
@@ -864,7 +884,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16">
         <v>56.733898581166699</v>
@@ -872,7 +892,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17">
         <v>56.733898581166699</v>
@@ -880,7 +900,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18">
         <v>40.856648462250803</v>
@@ -888,7 +908,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19">
         <v>40.309956327547702</v>
@@ -896,7 +916,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>40.856648462250803</v>
@@ -904,7 +924,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21">
         <v>44.426881914721001</v>
@@ -912,7 +932,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22">
         <v>39.880682121869398</v>
@@ -920,7 +940,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C23">
         <v>45.002255553916598</v>
@@ -928,7 +948,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24">
         <v>42.713829118295997</v>
@@ -936,7 +956,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25">
         <v>48.557791988687001</v>
@@ -944,7 +964,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26">
         <v>48.792915327380399</v>
@@ -952,7 +972,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C27">
         <v>21.484372412065699</v>
@@ -960,7 +980,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C28">
         <v>18.978894300581199</v>
@@ -968,7 +988,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C29">
         <v>36.462976608877604</v>
@@ -976,7 +996,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30">
         <v>24.308420415997102</v>
@@ -984,7 +1004,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C31">
         <v>28.632034836346797</v>
@@ -992,7 +1012,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C32">
         <v>51.654131300794504</v>
@@ -1000,7 +1020,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C33">
         <v>23.238415601998199</v>
@@ -1008,7 +1028,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C34">
         <v>23.238415601998199</v>
@@ -1016,7 +1036,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C35">
         <v>33.392154021300904</v>
@@ -1024,7 +1044,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C36">
         <v>33.392154021300904</v>
@@ -1032,7 +1052,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C37">
         <v>22.176035029732699</v>
@@ -1040,7 +1060,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C38">
         <v>31.2862930277097</v>
@@ -1048,7 +1068,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C39">
         <v>31.2862930277097</v>
@@ -1056,7 +1076,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C40">
         <v>40.914733922216598</v>
@@ -1064,7 +1084,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C41">
         <v>12.2998435246006</v>
@@ -1072,7 +1092,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C42">
         <v>21.052582618919498</v>
@@ -1080,7 +1100,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C43">
         <v>52.189372773418995</v>
@@ -1088,7 +1108,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C44">
         <v>15.7860326316352</v>
@@ -1096,7 +1116,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C45">
         <v>16.808352709255502</v>
@@ -1104,7 +1124,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C46">
         <v>32.323684614935402</v>
@@ -1112,7 +1132,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C47">
         <v>47.030450935670402</v>
@@ -1128,7 +1148,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C49">
         <v>35.791218850046199</v>
@@ -1136,7 +1156,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C50">
         <v>39.589485461479399</v>
@@ -1144,7 +1164,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C51">
         <v>19.879531186200801</v>
@@ -1152,7 +1172,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C52">
         <v>18.066477732272702</v>
@@ -1160,7 +1180,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C53">
         <v>11.484833139181399</v>
@@ -1168,7 +1188,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C54">
         <v>33.902576999080601</v>
@@ -1176,7 +1196,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C55">
         <v>19.989061020705499</v>
@@ -1184,7 +1204,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C56">
         <v>16.1792473035973</v>
@@ -1192,7 +1212,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C57">
         <v>48.042675359239901</v>
@@ -1200,7 +1220,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C58">
         <v>13.7827564790244</v>
@@ -1208,7 +1228,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C59">
         <v>29.393032399026598</v>
@@ -1216,7 +1236,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C60">
         <v>33.359134920993696</v>
@@ -1224,7 +1244,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C61">
         <v>20.933968750401299</v>
@@ -1232,7 +1252,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C62">
         <v>20.774021901650901</v>
@@ -1240,7 +1260,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C63">
         <v>27.709394544563498</v>
@@ -1248,7 +1268,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64">
         <v>32.261657739764701</v>
@@ -1256,7 +1276,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C65">
         <v>27.605356120527603</v>
@@ -1264,7 +1284,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C66">
         <v>20.273829051997399</v>
@@ -1272,7 +1292,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C67">
         <v>30.3487324183927</v>
@@ -1280,7 +1300,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C68">
         <v>26.725478892947102</v>
@@ -1288,7 +1308,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C69">
         <v>25.937825405924098</v>
@@ -1296,7 +1316,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C70">
         <v>36.536098927901897</v>
@@ -1304,7 +1324,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C71">
         <v>42.0360180530515</v>
@@ -1360,7 +1380,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C78">
         <v>35.381420818090696</v>
@@ -1368,7 +1388,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C79">
         <v>27.667738321280599</v>
@@ -1408,7 +1428,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C84">
         <v>27.115385384726597</v>
@@ -1496,7 +1516,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C95">
         <v>21.667981781054099</v>
@@ -1512,7 +1532,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C97">
         <v>32.7191202593879</v>
@@ -1520,7 +1540,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C98">
         <v>34.174715544540405</v>
@@ -1528,7 +1548,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C99">
         <v>27.4835602157391</v>
@@ -1536,7 +1556,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C100">
         <v>30.701631577665601</v>
@@ -1544,7 +1564,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C101">
         <v>19.653798655881801</v>
@@ -1552,7 +1572,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C102">
         <v>25.5356049440291</v>
@@ -1576,7 +1596,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C105">
         <v>22.476937163442599</v>
@@ -1584,9 +1604,57 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="C106">
+        <v>24.4392230040031</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>105</v>
+      </c>
+      <c r="C107">
+        <v>26.571469895919098</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>106</v>
+      </c>
+      <c r="C108">
+        <v>20.023791854334998</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>107</v>
+      </c>
+      <c r="C109">
+        <v>24.6627342529628</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>108</v>
+      </c>
+      <c r="C110">
+        <v>40.093429297854399</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>109</v>
+      </c>
+      <c r="C111">
+        <v>47.3359562360884</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>110</v>
+      </c>
+      <c r="C112">
         <v>16.409530332271899</v>
       </c>
     </row>
